--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1058,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1081,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1173,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1219,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1242,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1265,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>Mat</t>
   </si>
@@ -74,108 +74,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>PIEDRAS</t>
-  </si>
-  <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>VELASQUEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>AREVALO</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>MARTHA MARISOL</t>
-  </si>
-  <si>
-    <t>JOSUA</t>
-  </si>
-  <si>
-    <t>TAURINO JUNIORS</t>
-  </si>
-  <si>
-    <t>MARIA LARET</t>
-  </si>
-  <si>
-    <t>INGRID PAOLA</t>
-  </si>
-  <si>
-    <t>JOSUE ADARAYAN</t>
-  </si>
-  <si>
-    <t>NAYDELIN FERNANDA</t>
-  </si>
-  <si>
-    <t>YAIRA GUADALUPE</t>
-  </si>
-  <si>
-    <t>MARY JOSE</t>
-  </si>
-  <si>
-    <t>ESTEFANI JHOSSELYNE</t>
-  </si>
-  <si>
-    <t>MAYTE</t>
-  </si>
-  <si>
-    <t>QUETZALI</t>
   </si>
 </sst>
 </file>
@@ -725,16 +623,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>66.67</v>
+      </c>
+      <c r="H2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -748,16 +649,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>27.27</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -862,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -897,7 +801,7 @@
         <v>40.91</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -959,7 +863,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,282 +896,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920311</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920366</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920318</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920424</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920342</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920426</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920298</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920302</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920364</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920367</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920347</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920352</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,123 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>DE GANTE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VALDES</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>PIEDRAS</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>YAIRA GUADALUPE</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>MARTHA MARISOL</t>
+  </si>
+  <si>
+    <t>LUIS GABRIEL</t>
+  </si>
+  <si>
+    <t>JOSUA</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>MARIA LARET</t>
+  </si>
+  <si>
+    <t>SILVIA ESMERALDA</t>
+  </si>
+  <si>
+    <t>ROCIO TAMARA</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>QUETZALI</t>
   </si>
 </sst>
 </file>
@@ -623,19 +740,19 @@
         <v>36</v>
       </c>
       <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
       <c r="F2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>66.67</v>
+        <v>72.22</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -649,19 +766,19 @@
         <v>22</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>27.27</v>
+        <v>36.36</v>
       </c>
       <c r="H3">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -675,16 +792,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>73.53</v>
+      </c>
+      <c r="H4">
+        <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -698,16 +818,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>42.86</v>
+      </c>
+      <c r="H5">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -844,16 +967,16 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
       <c r="G5">
-        <v>48.57</v>
+        <v>51.43</v>
       </c>
       <c r="H5">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +986,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -896,6 +1019,328 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920440</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920366</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920217</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920329</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920424</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920333</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920339</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920347</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>Mat</t>
   </si>
@@ -76,6 +76,39 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>DE GANTE</t>
   </si>
   <si>
@@ -91,28 +124,46 @@
     <t>DURAN</t>
   </si>
   <si>
+    <t>ESPINOZA</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>BANDALA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
@@ -127,28 +178,46 @@
     <t>CORTES</t>
   </si>
   <si>
+    <t>AREVALO</t>
+  </si>
+  <si>
     <t>ARENAS</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>ALEXA</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>ESTEFANI JHOSSELYNE</t>
+  </si>
+  <si>
+    <t>AELEN</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>MARIA LARET</t>
+  </si>
+  <si>
+    <t>ROCIO TAMARA</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>MAYTE</t>
+  </si>
+  <si>
+    <t>QUETZALI</t>
   </si>
   <si>
     <t>DANIELA</t>
@@ -166,31 +235,13 @@
     <t>LUIS GABRIEL</t>
   </si>
   <si>
+    <t>MARY JOSE</t>
+  </si>
+  <si>
     <t>JOSUA</t>
   </si>
   <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>JOCELYN</t>
-  </si>
-  <si>
-    <t>MARIA LARET</t>
-  </si>
-  <si>
     <t>SILVIA ESMERALDA</t>
-  </si>
-  <si>
-    <t>ROCIO TAMARA</t>
-  </si>
-  <si>
-    <t>INGRID PAOLA</t>
-  </si>
-  <si>
-    <t>MAYTE</t>
-  </si>
-  <si>
-    <t>QUETZALI</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1021,16 +1072,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920261</v>
+        <v>18330051920253</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1044,16 +1095,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920302</v>
+        <v>18330051920281</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1067,16 +1118,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920308</v>
+        <v>18330051920309</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1090,22 +1141,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920311</v>
+        <v>18330051920367</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1113,16 +1164,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920440</v>
+        <v>18330051920368</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1136,22 +1187,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920366</v>
+        <v>18330051920217</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1159,22 +1210,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920217</v>
+        <v>18330051920329</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1182,16 +1233,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920329</v>
+        <v>18330051920424</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1205,16 +1256,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920424</v>
+        <v>18330051920339</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1228,16 +1279,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920333</v>
+        <v>18330051920342</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1251,16 +1302,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920339</v>
+        <v>18330051920347</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1274,16 +1325,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920342</v>
+        <v>18330051920352</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1297,48 +1348,186 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920347</v>
+        <v>18330051920261</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920352</v>
+        <v>18330051920302</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920308</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920311</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920440</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330051920364</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920366</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920333</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G15">
-        <v>2</v>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
+++ b/docentes/Ochoa Martínez Mayeli - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>Mat</t>
   </si>
@@ -91,6 +91,9 @@
     <t>GIL</t>
   </si>
   <si>
+    <t>LADINO</t>
+  </si>
+  <si>
     <t>MARQUEZ</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>BANDALA</t>
   </si>
   <si>
+    <t>URBINA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
@@ -197,6 +203,9 @@
   </si>
   <si>
     <t>AELEN</t>
+  </si>
+  <si>
+    <t>MARIBEL</t>
   </si>
   <si>
     <t>ANDRES</t>
@@ -1037,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1078,10 +1087,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1101,10 +1110,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1124,10 +1133,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1147,10 +1156,10 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1170,10 +1179,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1187,16 +1196,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920217</v>
+        <v>18330051920213</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1210,22 +1219,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920329</v>
+        <v>18330051920217</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1233,16 +1242,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920424</v>
+        <v>18330051920329</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1256,16 +1265,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920339</v>
+        <v>18330051920424</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1279,16 +1288,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920342</v>
+        <v>18330051920339</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1302,16 +1311,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920347</v>
+        <v>18330051920342</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1325,16 +1334,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920352</v>
+        <v>18330051920347</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1348,39 +1357,39 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920261</v>
+        <v>18330051920352</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920302</v>
+        <v>18330051920261</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1394,16 +1403,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920308</v>
+        <v>18330051920302</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1417,16 +1426,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920311</v>
+        <v>18330051920308</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1440,22 +1449,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18330051920440</v>
+        <v>18330051920311</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1463,16 +1472,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>18330051920364</v>
+        <v>18330051920440</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1486,16 +1495,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18330051920366</v>
+        <v>18330051920364</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1509,24 +1518,47 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
+        <v>18330051920366</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
         <v>18330051920333</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
